--- a/2025-02-03/Soccer_2025-02-03.xlsx
+++ b/2025-02-03/Soccer_2025-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,7 +509,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196681813353?_skw=PSA+10&amp;epid=24056461509&amp;hash=item2dcb264d69:g:8UYAAOSwEKNm-gvx&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmoq60I7T%2FUd5MbvAaA%2FVQ%2F3OZ49GObglruA5VUjnEGtwAd5k2wTmBDgZp0F25%2BaFMxlBVeDY9kv6uDzwXpS3r2Ih476b0wRZpqx0AqMFw7zX8IGisowlBnNk%2BzDyOwO2S21xffGVQWFhAqp1QNYihiG%2BYrRJbF3022GLav8XBBjigYswIqgdT4Ebt94EmofpRpPLGGnJXJsOB9jFYRgL0oqPvUh6qy%2BsYgm%2Be911bXJTpRjaFLkPCC9yw8g9Pn74Mqp0hhWDKfNG6Ch6T481ox%7Ctkp%3ABk9SR7jtrZSaZQ</t>
+          <t>https://www.ebay.com/itm/196681813353?_skw=PSA+10&amp;epid=24056461509&amp;hash=item2dcb264d69:g:8UYAAOSwEKNm-gvx&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmoq60I7T%2FUd5MbvAaA%2FVQ%2F3OZ49GObglruA5VUjnEGtwAd5k2wTmBDgZp0F25%2BaFMxlBVeDY9kv6uDzwXpS3r2Ih476b0wRZpqx0AqMFw7zX8IGisowlBnNk%2BzDyOwO2QrIgNzHNrZAmg1moNLUdN43QRKt77tEr8ZHMolc9aTDPUFhExiMdcGPd8PmgkZHikO5LIqolnhaqm02AcjGFQ4oLw1heZnc37kljENAbV8HJxd0XYjTj7qtG1GQPYmG2UivbYshnhMulMi1YAERZGz%7Ctkp%3ABk9SR9CCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/225364095543?_skw=PSA+10&amp;epid=14056554625&amp;hash=item3478bf3237:g:nlAAAOSwpAtjyfgW&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnbqqRSGMHzY7QYz98Kj5gX1xQiUUQxWWjGIaWnmEepkMKd30gtNE0KdOj6eWGp4Jic5FGFxdcT1Y87GbsRKtC0d7usbziUweOT5sFBVerjvHNrzoDju7jV6w1mE1Mtb7wWcp7gPVTJMXYq%2FbmhGpAPnF6eJ0wuG56OES75q4hFljPPTN%2B4eAEhd%2Fus96ppzt0wUQR%2BjFHbb0RaMZLlDVjcyXvAu%2Fu7WkkxiDXhkMK--w%3D%3D%7Ctkp%3ABk9SR7jtrZSaZQ</t>
+          <t>https://www.ebay.com/itm/225364095543?_skw=PSA+10&amp;epid=14056554625&amp;hash=item3478bf3237:g:nlAAAOSwpAtjyfgW&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkOBbvTkxDRmOHiKrzMugtdVLkzSTp95GCwvcCNzqUtKTi88dUz7yvYRkq82Ki31vbPqnTQiD1BWLSzrEgVg8Farww%2FRTVR%2FrGe%2FoLurnMZeOHD25k229mx2zmZnnzSaRBZMFx2SXnr%2BKa4olkHjZ5Y7mbbnTtQZwiSOn2Bd5b%2Br2nEpiBwgmwp8S3foG2i%2B2sNgCB%2BrxMSMwBCWkXWH9priv7O%2FqR%2F0S5wF%2BWOMrJ779KlZf0srgcaQSb1%2B%2FnGDyaHwKpjQvu3ZdPBgSzmsz%2Bl%7Ctkp%3ABk9SR9CCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176821526941?_skw=PSA+10&amp;epid=9067921454&amp;hash=item292b62619d:g:PcAAAOSwTvxnoRyz&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnHdT4MtsxfuofLix9hi0nvLT23ZWkSozQtRBbtIb7kl1RkfphLn338UTAbm1%2BOr6KSNspA54LeVKIpaugpJ1QoTK30kNTrWVzDgZBZPK7G8FhBqSvp3TVWYn5Gq4YFpFKrYjdnK2WIRbKLSBib34Pxj0fB9BS8%2FNdHDFr1Tk42aXPG8GgEBUlzL3ArjkujFEUm4DnX2J4T0vqslbY3fFzR2Tt4d7IY5of5SKB5QeKR08Rh0Td%2F%2BIvzTRTbxy75MK6RsyrFaT%2BJhlnCONwE4%2Biy%7Ctkp%3ABk9SR7jtrZSaZQ</t>
+          <t>https://www.ebay.com/itm/176821526941?_skw=PSA+10&amp;epid=9067921454&amp;hash=item292b62619d:g:PcAAAOSwTvxnoRyz&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnHdT4MtsxfuofLix9hi0nvLT23ZWkSozQtRBbtIb7kl1RkfphLn338UTAbm1%2BOr6KSNspA54LeVKIpaugpJ1QoTK30kNTrWVzDgZBZPK7G8FhBqSvp3TVWYn5Gq4YFpFJJjRqR3prJbuBWKfHkvn3076XGpic4HIXeNsOdmvUzjEoQ23yeTmeghTKS%2BSTl6kpv4YSSwxzM9OmKasrdEI0BatjrO8N1fcI%2BXNQiZxz3wkr%2BmUddxV3%2B18Oviwnst7%2FdJCNNhgab2%2F%2BeKeCzX8tw%7Ctkp%3ABk9SR9CCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365361915037?_skw=PSA+10&amp;epid=20062727969&amp;hash=item551144649d:g:RlMAAOSwi~Bnk8gp&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnPSvD7kKNh5305KgxKXn2niL54wdqeqJN93CrDNmu%2F9pCXT90K5vudvVnWXAWpAoIHMlQB9XvRclswIh4GZkP8T%2BLC%2Fl9ZBqW9jm%2BEtxEcKYxNbMRMHq5dPiaw8ieu%2Bn1kDJnT0yLX%2FJ4%2BP2T4h91m%2BsaLZoy363wvjEI8hXXpRnPSTSdP%2BUFd0KExsjjzkOvHKxrcJ4aMiM4WIDH8NQPFamZ7L1gSJQnjEeedBHQIi%2BndUpMY5BWO1iY0hbLOTW5XNJHk9G6QdqBzGLh3izMw%7Ctkp%3ABk9SR7jtrZSaZQ</t>
+          <t>https://www.ebay.com/itm/365361915037?_skw=PSA+10&amp;epid=20062727969&amp;hash=item551144649d:g:RlMAAOSwi~Bnk8gp&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnPSvD7kKNh5305KgxKXn2niL54wdqeqJN93CrDNmu%2F9pCXT90K5vudvVnWXAWpAoIHMlQB9XvRclswIh4GZkP8T%2BLC%2Fl9ZBqW9jm%2BEtxEcKYxNbMRMHq5dPiaw8ieu%2Bn2cGa7GSY%2FzZ9iDMAI3P0PyjqhizghiCGvJ073zW3rwOKbiprCi%2BmEXqui7YsoOS9o9bCGoRTYtqb%2Fw94gnhkRkRfmtaJLDJT%2Fn9ntf5PkFoWn6dgNb2dHjtMv4A38NvgNJOoeumJ7PvQGy9YrCAZ8B%7Ctkp%3ABk9SR9CCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365361919855?_skw=PSA+10&amp;epid=11062714780&amp;hash=item551144776f:g:BpgAAOSwmGBnk8kX&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlrrI1SUrdjkBwI8MkvqdrCyhXJ%2F0TiopVehE%2Bx2wOe9RE27wEBlpIHp6OeZ36Eykf%2F0LK93jzmxoDTxB6HmOnwbYAZy%2FnxK6oQ3fUlv8nVnxA%2B%2FyiurIzP71pRpGUIWNo6F5%2Frw7bdCuaAZ0%2BCy5ZWGWdggX9DhauG%2BpL52dNwjM%2FPb3hcWb7yYDlWkNImhvTSha%2BPtWrRF5jXM8zSgZIMDefjmZxZa1AbSrqy6iXWmA%3D%3D%7Ctkp%3ABk9SR7jtrZSaZQ</t>
+          <t>https://www.ebay.com/itm/365361919855?_skw=PSA+10&amp;epid=11062714780&amp;hash=item551144776f:g:BpgAAOSwmGBnk8kX&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk6m1INnB6E0HFQN%2F7RsqmUY8VReuv%2F2Q3KeRa7yNWiMdm9PltAcNEdY%2BO8emzADB3eA5b3AZhEPyqSJIFbPeqab2YB0cdfWUuFDeaY7ou%2BCKIr%2FL%2FZN7VHmS8ouUNeuzkCJ%2F4TdUDVjX3f1kMZzpy0xDSPGBlUZoAsCmCuOQywZFqcp5XFFzB%2B%2B%2BBdVmJ3t8ya%2BgEhJPoTxZqV9P993gT%2Fd0yNeWOY8g0hdpeTHBY2CdRktlYlFZqw4ftHrgwXkzYJvDJvCgztxDkFy4rWmMVU%7Ctkp%3ABk9SR9CCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365361968447?_skw=PSA+10&amp;hash=item551145353f:g:OyIAAOSw~Xtnk9Si&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk4Bt9dROlA%2BSDCC9GzK5lsUWfaoemqzujS%2FECFhnrfMarYFQgarwDow8J3OpaTE%2BqMVUM%2BQ8nNlirnMX0gI5DGc1X4ilVWUH%2FGjGwm82z9mzwKqnAlHE3hzWd1Qr9ujK3DN6ekbrbvD5ygG7x%2Bm2J1wv7aC0RF4S0D%2Fc7x8sfNQRF%2BmpLW1IPr%2FExZnml16esA8nT%2FVsuiN%2FrfT9HOKLBqE2k7j4Q6EfbtjxwErdVihQ%3D%3D%7Ctkp%3ABk9SR7jtrZSaZQ</t>
+          <t>https://www.ebay.com/itm/365361968447?_skw=PSA+10&amp;hash=item551145353f:g:OyIAAOSw~Xtnk9Si&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKntXozCjRcNEXNZ7rY5Ngu4ZcG4jZW%2Be0791p2gVWgsOWluMtVog7B2KrmORHb1hjJoDRAxHKvY9jkkUpvsdiNBveTIg6LHgM0iVr5jPToULMean92PB0g9nhLBZXI8smf2E%2BHRBCwo42sxLP0c0Lgf28TCP7A9%2FNJk4fZGNmOeylDXdWOJEVE%2FHiVbCOlkMaRX93KDSReVCUPzgllW7pEZxxgNWd3AOCNdM2rBNr2AUUdP3hJ3K4jGIkMuAc9dMmzIlRonUym6rXMxd%2FVfVuVN%7Ctkp%3ABk9SR9CCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954187606?_skw=PSA+10&amp;hash=item57889da556:g:aagAAOSwpNZnl8jQ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl12CXBALpGf93Dh5fgRwMP2W%2FC8AYXPd3M%2FVnaMMAJ7p2orqAVlb65yx89balI5O7mGg6pG9oWrFWfOBH7jZGMii567NPVk8W5vJbjWLvsfhO4B0UadOaUKqSQxPgUT44wjI7recqsD6X3KuKSoBeof7H0T5MLzvebX0cU3NciKH%2BCwe81Hi7zbVVEnEEh7hg7U5sGpvpdsQrsSp03nyskvcROSY4U8ii4ca1NeBubN2RfBMInGc10QrWrqw1EQldyLQFKjMwMI1xEBDVZN3Mp%7Ctkp%3ABk9SR7rtrZSaZQ</t>
+          <t>https://www.ebay.com/itm/375954187606?_skw=PSA+10&amp;hash=item57889da556:g:aagAAOSwpNZnl8jQ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl12CXBALpGf93Dh5fgRwMP2W%2FC8AYXPd3M%2FVnaMMAJ7p2orqAVlb65yx89balI5O7mGg6pG9oWrFWfOBH7jZGMii567NPVk8W5vJbjWLvsfhO4B0UadOaUKqSQxPgUT46EJek3fGfkGfKBCO2bLGrMJptHPPDidBxwwDR6fHP%2B%2BjZLRPLcC61TzjgInRMRhaL7cQVzd1kKr2%2Bw8xHJEhaV1BadCr1DhBLxH%2FgI8FPSspQG5LSidMIAsNnmDRl%2Fs32KoMt6BSdr8U9U7VFN2hQh%7Ctkp%3ABk9SR9CCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387867590732?_skw=PSA+10&amp;epid=20068277939&amp;hash=item5a4eb5c04c:g:3H8AAOSw5ztnmF3t&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn34qAJsinZAuxozr8KUWnwFa%2F8YKr%2Fcd9VGzA5MHTLOG2Cgp1rdUhfHcaram2OIhBjxmVQR%2BzgzKYbo8NskWOXj%2FrbINOvKEXashv89sOkLYW%2B7vxGVCR8EkDr6YTXLumakAyZtzNQtboQC6ZN63tLbwH1B%2BA31soPLsTRwQpCKC3F6AIjfnUI5e5V%2BTtUAZJUpUZmhqlKlXj9J1MfGnb1E5xaptqkxlHP1kGv%2FmsEcw%3D%3D%7Ctkp%3ABk9SR7rtrZSaZQ</t>
+          <t>https://www.ebay.com/itm/387867590732?_skw=PSA+10&amp;epid=20068277939&amp;hash=item5a4eb5c04c:g:3H8AAOSw5ztnmF3t&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn34qAJsinZAuxozr8KUWnwFa%2F8YKr%2Fcd9VGzA5MHTLOJmgX1FYG9HqMU0fuza%2BeyvM2cV9qmQIks6xE%2Fn7oonJsAMykJUo1pOqC3HF6Ek0zr0g0UTPIHzrFwYyEnTs8gibhrmbXq95KoLXKeIjPQP1wEmAyXGWiTazE%2BM%2BP5YWG6Ps80dqDLZZ797BNqe8HDRb1XvhocjS8qo5sovlYVYmNBdnUxRS1mpjxic3JAj%2F%2BQ%3D%3D%7Ctkp%3ABk9SR9CCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167292241877?_skw=PSA+10&amp;epid=11056498891&amp;hash=item26f36507d5:g:ErgAAOSwd7ZnoOo6&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnBsd4UKKp0pWKt3Dq7gPnkZP%2FrDByRGJWmLxegWTZjMl8I28yYNHrU%2FwG0kJuKaByIP52kFI12vdTsg3XwVTW%2FTV%2B18T4djrubXnq7rEuCYdVAG23xGQGOJfg7yrv0TTYbqoYBm5Vls27GsERtytiMy8SDwwFH%2FUrZtjYsQoAhyeAT7%2F0vunKbGdpEyqLPatJJyY7GN2GmpOoS6%2Fg6emJILUx5j81vLsBhs%2FAhiTsfUg%3D%3D%7Ctkp%3ABk9SR7rtrZSaZQ</t>
+          <t>https://www.ebay.com/itm/167292241877?_skw=PSA+10&amp;epid=11056498891&amp;hash=item26f36507d5:g:ErgAAOSwd7ZnoOo6&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmV6JLIP36O5DmB4yizNMaX%2FL1uLCr798Piymb--1iXspDuaEGZlngLtPkkKBi4WYYJKCz02CtRDe9uc52BSgwwWvcUffQsp70kN5NraTG65gA82jwIk8dRbEVi9RNTPPdDf%2B4EHSChxaNIkSflTt0h6SF%2Bp%2FUla2UyhomfL8vaH83AJKTQhos8mg3p8qVrU4sA9ox1H1YoLW1TzbM8J7lB%2BSOL%2F6M7QWRQVHjedOtvPdtAwC%2B0XtN6%2BoHzSSngieDnH2w%2F0jN%2FgK%2FlTxmEewDY%7Ctkp%3ABk9SR9CCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954096189?_skw=PSA+10&amp;epid=11056539035&amp;hash=item57889c403d:g:GbsAAOSwlURniChL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnxQDBLkEElqxFi7C%2B3tsSF2a8B6DNTHhy1cZA77IqDAaCIzUZFU87P25DyjJz7xzJEYfUylphD90Jzo4jwqirh0XY7zydtGdk89Mo2S3DJJm9RssiapAfPHOP6k1fxnuaGAnVgs5MkLvEscYrDNdG1VnhHFHS0IHmvbEC%2B8d5%2BWjI49l%2Benja9zah4HDUWIP59na7qzckusk1urxAlhQpHl%2BrqGkysxrqUIxvqqfl0Og%3D%3D%7Ctkp%3ABk9SR7rtrZSaZQ</t>
+          <t>https://www.ebay.com/itm/375954096189?_skw=PSA+10&amp;epid=11056539035&amp;hash=item57889c403d:g:GbsAAOSwlURniChL&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl6EgwQ%2B%2BC58%2Boz4OW609FbLkEjxjRuyg9DF7MN0Dgsj2dFCUpCnmG5uooQryRgmtgBiezN4iLe43aW9jabAw0J1ZBipmTKKQWpZkuIoH4WNANbfE0Gtnuua6ONvy82vWtRD%2B2RnGt6WG4jbChgT48XVpvphqwONtG5uTorZirvBw6bSTJ92IKsK085wAqNnwDz9OXieXD%2FNcDIkBexwpYGbAMIHgqZ32v3%2Fv5bulOX0jXYijjafOPp34h6eYI7%2BKbtsuJu2ZZdm7G2JCl8%2BsJU%7Ctkp%3ABk9SR9KCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366951573?_skw=PSA+10&amp;epid=25056563152&amp;hash=item5511913e95:g:eKkAAOSwXxZnl~yo&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn4QlcJqLWZHhv4OBjObgOyG%2BYVZFy50tzkiAYJpEf%2BtWDNpRYrDfhXsPK6TIdgh%2Bd%2F2DDWsUsZ%2F1rceOlXIJXwNob9E12Nq9f8bI81HBTQFKfmX5EGMzsOq6x8M6MntcPz7t4%2F%2BFCPoHFvaI6LRWDJwhX5PIbGCRC2yfIzEnCQNnuDym%2FgiUP7VN5gZitGcDIe3l0pupGaAImpXJY0JrmGPMhc5dtxZPv%2Foo8H5vd3fw%3D%3D%7Ctkp%3ABk9SR7rtrZSaZQ</t>
+          <t>https://www.ebay.com/itm/365366951573?_skw=PSA+10&amp;epid=25056563152&amp;hash=item5511913e95:g:eKkAAOSwXxZnl~yo&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn4QlcJqLWZHhv4OBjObgOyG%2BYVZFy50tzkiAYJpEf%2BtTpaiOd%2BLlC6loi%2BeQNgbKJGWFPYdJrXoSOv2SDjXcmPzQBDbaGHtMDLJ6l3DWGzdxH5GGB6cQDCWYOyVOTFVeaJxXJpr43hj8BpEYO22hwkj2VJLWVzSsJtJAnngsrN8vephKXCSIhh6tBE%2BkMqb8tT1gUv%2Fzi%2FAL9tgnyIlrHWZKlW6SIoheNnF2Z%2BkIoDUg%3D%3D%7Ctkp%3ABk9SR9KCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365367003199?_skw=PSA+10&amp;hash=item551192083f:g:SrsAAOSwFzFnmA0K&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm0G1yEkkDNz8Ysd%2Bby8OkyrA7oXQv94ZFKiG3xu9SlUVFjuoZxfk5SY8V5PrWMXXn2RwI35EIuA3SyWjWEr6iZTTDlYB4%2BP%2FcLjKCY%2BfRSIrJ2gR8mtkKF7RNXSQ9ianEZNKQ7j4eTtbPcXeaDPMWfTzrCG8uVlTQ74FxYt0yjQhB0Ymk24QqiyWvCmuIOzt0%2Fsu3Y6WgERUFXBaBpR9SzSSAVHH3K%2BnaJCKAoKg4kOwWh1Uz3TviGRnKGpAH2OGN1Nws%2B%2FnlUHAmklXdEueYU%7Ctkp%3ABk9SR7rtrZSaZQ</t>
+          <t>https://www.ebay.com/itm/365367003199?_skw=PSA+10&amp;hash=item551192083f:g:SrsAAOSwFzFnmA0K&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlNCZvgzpFtQp%2Bsw1fJ%2BUjyAKLr%2BDSR24N2H5ljxztoyxFQvi6fut%2BqCYU%2BukZtwphCrzTz7ptieSvKNhK%2BvtUSxSlAY%2F0n%2FGSrIEnxrdd3tb0gs5sAX2AhbYYH3IP2HMZqjEAKarFWmtzx9d8WIBDYtF4%2FsC9zJqeE2h71Xrf3IIm0eYKErTe3xgdtd1UAIwQKTR9SH--3D7z8vrMn0fCDxXMTwhL5QCj%2BTJ0EsZbJeQ%3D%3D%7Ctkp%3ABk9SR9KCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365367004305?_skw=PSA+10&amp;epid=26061654176&amp;hash=item5511920c91:g:szAAAOSw9W5nmA2F&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnYmu6w%2BhcexFKoeijjcNbWlXWkvBcvVVxV45VVqIPhrAXhPg5uW2TKMq%2FBEkTXU5P9sSC4u7nGNvTYeKhqWLkTy9iiMD59k7%2BjGnSWfTjXS6PJwboc3GQ8WNWyhDNGVzDrDDv85x6PevhC1aLZXYZQlIbQK%2F813xw6n0pMSX%2BRhMgDA5MkVE%2Bg6ryHzTc19XyyS8dFEVsuJFntxPsUk%2Ftki5vJICMpwUkbVa%2BkSV2EQJixcacIeH1DvTwBpSG%2BESG7gaTR2HIhi9edjYnMEsNH%7Ctkp%3ABk9SR7rtrZSaZQ</t>
+          <t>https://www.ebay.com/itm/365367004305?_skw=PSA+10&amp;epid=26061654176&amp;hash=item5511920c91:g:szAAAOSw9W5nmA2F&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnYmu6w%2BhcexFKoeijjcNbWlXWkvBcvVVxV45VVqIPhrAXhPg5uW2TKMq%2FBEkTXU5P9sSC4u7nGNvTYeKhqWLkTy9iiMD59k7%2BjGnSWfTjXS6PJwboc3GQ8WNWyhDNGVzC7BTTt99DnndvS6u0BS6L0ESCBXrCiB85IpZicMGScNvgW0hgoSh55TAVh%2F7BbS12UJ9DYqsrKW9pVLWJVS%2FBMgOJPVjJxGrgiNBQZSjonaLxh%2FD3yXVI0QuUBg%2BByEmUg50BCRrIa4yKqb3vhdOvn%7Ctkp%3ABk9SR9KCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954511659?_skw=PSA+10&amp;hash=item5788a2972b:g:wpkAAOSwaZNnmBGl&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmI8GhvC%2BtUJcN3aHa3A%2FH1l0ZKO1ANo0qgxSzq0d9F5rt5%2Fd6fBjwUI8ExGA2X3kmYbazNh3xzRWtc%2BFyqaqQF5zsupgp8iON8oY3dhMGVPy%2BfWBefPXu--28mnsvgz3wcizyQd1IpW8aMGj8tvsxCo%2B8yxQzn5djIxM61Hm9KVJvK98QBYqkDg3ieHYY3ui%2FslS8S%2F6prRq5Vj55RpKhU4iAISmfmv4izKt23mc67y9LwB3MpABTrSB3UtvGd3Rh7lI%2B6kUoafiHbopCKSxsa%7Ctkp%3ABk9SR7rtrZSaZQ</t>
+          <t>https://www.ebay.com/itm/375954511659?_skw=PSA+10&amp;hash=item5788a2972b:g:wpkAAOSwaZNnmBGl&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmI8GhvC%2BtUJcN3aHa3A%2FH1l0ZKO1ANo0qgxSzq0d9F5rt5%2Fd6fBjwUI8ExGA2X3kmYbazNh3xzRWtc%2BFyqaqQF5zsupgp8iON8oY3dhMGVPy%2BfWBefPXu--28mnsvgz3x9Mc%2BO0wJlIqaRMGmSL5CsAG0v1n53mYXwHku4%2B5Aw6KeBY6QACKGz5Klp39Qu7mBsNAF969EbwiJ8nZeNlZ8lwcK5y2lKG4IFABYTKgwMKiF%2Fy7nl%2BLS%2FR3%2BByB2mU3VnSZZSommOn%2BXOn276Xzi5%7Ctkp%3ABk9SR9KCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954512996?_skw=PSA+10&amp;epid=14056547556&amp;hash=item5788a29c64:g:i94AAOSw3zBnmBIE&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlGrhkjELsFigLkq6kuT6kfVROLi4%2FkeeosnaINxjipMzXGuquVHIIXUyl3t1QHl6SnlLyGO07%2B8d1ZUjvwXB1%2F5xRcVfQiSu9mo7lAcNVCuDhEuLEkSwbfo15sVqy8HLhxSW2MSKsbgcL6bpmuatG4RI4JvJjid7sZ2GxCzI1kI5SDuqNeEPA9an1pc%2BKeGSb4Zslw1HQcvgk%2Brr2I7J%2BksVyQg1YH87CLHZFA3sfTXg%3D%3D%7Ctkp%3ABk9SR7rtrZSaZQ</t>
+          <t>https://www.ebay.com/itm/375954512996?_skw=PSA+10&amp;epid=14056547556&amp;hash=item5788a29c64:g:i94AAOSw3zBnmBIE&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlPvJV%2FY3KwANIdr%2Bj2IArjr4iQbd95kA1yp3afqtPwxq3GR6tomZxITTe%2BQv167IKkKmikeNZfUIJoHKVYpeKTpT4C6X2kgoMDG8vMGCzLPT967W9O2mXpleYJl2ahMDhUMr3Io5D84aapYaexF8idLJLe0%2BPw2v1ycXoI5jZ1zB7l41IWE6njGErRn5B7e3v5PuH5msj8NlpFpDSCFbJzVHBM3%2FzCwyKUbxb0I2J9%2BV2CWUnFr7T2vQ4pJ2rNLnMSr%2FsxF4vLEtwONavTT6Ds%7Ctkp%3ABk9SR9KCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866807827?_skw=PSA+10&amp;hash=item5a4ea9ce13:g:Cu0AAOSwxV9nmBFf&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlCwSfW6bUURg9poacVTuWPCZk6zJ%2FOUn1UhMuxecpBVLTgVkpwLpv0VqkASpEj5J0rXzsqWMRofTO77pskjTR0zNt0AYVT6unhuZn%2FLU%2BWx4hB3Fo8Sz%2FYn3YQ3UUo7fe2j6damLHqXLOHro847kKKo3X4VML8z3GcQT%2Fs6k6gams9DrcAtRaOb8uz0vhXdADHpZOqkbeDlZ4LIcsV4i3eiBQGXXJeT1vbL2xl%2FYEpfQ%3D%3D%7Ctkp%3ABk9SR7rtrZSaZQ</t>
+          <t>https://www.ebay.com/itm/387866807827?_skw=PSA+10&amp;hash=item5a4ea9ce13:g:Cu0AAOSwxV9nmBFf&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlCwSfW6bUURg9poacVTuWPCZk6zJ%2FOUn1UhMuxecpBVNwEyvHPA5QAmU1lGEvrDmC%2BNlVA7bbRygtouY80caJqi%2B%2FF%2FdyVz2A5qUSs4S2PyUAReAfHOtNf2OVqySxe30%2BKuEw4txo%2F6oSJ6U5R5dnbyvkA6Lx5O2oguCnaOMsCW4PPqycZkgH6qGm66eyJM8datKsj15yBK10Qid2Nbe2KbLwMo9IvUEMnAeJuA%2FKJZg%3D%3D%7Ctkp%3ABk9SR9KCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186911305910?_skw=PSA+10&amp;epid=5056590047&amp;hash=item2b84c830b6:g:gpAAAOSwYPNnk~3C&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn9KEnFPUs78n4KqzHAU2vKjaMzUeNnqmpZv6emQ5l4bPfOXTb6haswCeGKZcF6sPtnn42wQQEIzW0n6OKJEb2XFHm6N0cexMjbVCvnUP%2FNM5Fhe5kMzwwEDB92x0QYcDEqTO5LACNOtWunQcnPa%2BONu5t9mjJQ%2B8Zf7WB6kORjuO9ud0bLmia1MxJbe3uhlAPPh7JuKIEVdixq8CIQLoJZ8TJF4wljso%2BKdLTU4v87Gw%3D%3D%7Ctkp%3ABk9SR7rtrZSaZQ</t>
+          <t>https://www.ebay.com/itm/186911305910?_skw=PSA+10&amp;epid=5056590047&amp;hash=item2b84c830b6:g:gpAAAOSwYPNnk~3C&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn9KEnFPUs78n4KqzHAU2vKjaMzUeNnqmpZv6emQ5l4bIaXpqNynJh4xP0JcYPF%2FqzKQsWzYxvWDGc3bxjrbW64fvUb9fPdfOqoRiKKjXP1sfdwVeuYCqFJ8fa%2FscTMlbIIs8pI9ndln0xOi5D%2FuU5ReCrqAdO1VHbu7mOQCwj%2BXO51cdLUtJSntrGsSG0w9lhg0gYyjXbLTZebNk5r7Tajnzc6bsj0GgmKrXFLy37pLA%3D%3D%7Ctkp%3ABk9SR9KCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375954330370?_skw=PSA+10&amp;epid=19064390708&amp;hash=item57889fd302:g:AXIAAOSwX-Znl-fh&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlucoPJ7Ctdii7o2%2FOX1R1zh9FExhbkAaE5wqdRKgEDm5JYNEAnr7XBwuVcVanCT8afchurO15bh%2FYP7HrZ8udeu0MuL2FBI1tmGkyMDZyql8C6689q7kYR5XWD8BXlV4t11dzUdwNo4OaDr6fijhYs8JprSJ9pUpczk%2BLKx7YnULuKM9WRSH8DJh4aFu4AFog66KRoE4dEej07M72jcRrOPuE0hFfJFIFU7WkSVsmQog%3D%3D%7Ctkp%3ABk9SR7rtrZSaZQ</t>
+          <t>https://www.ebay.com/itm/375954330370?_skw=PSA+10&amp;epid=19064390708&amp;hash=item57889fd302:g:AXIAAOSwX-Znl-fh&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmylGiPXEnFAGt5F6jUwXYlz7BTKeir%2BWEqYalSHwyWdRg4bjh5ridhFvYiZ%2F2KKDBjODEN%2FW1nQoxkg6RP5SSGos9kz8bVOFeaiSTkmE12XhlWkhb4NRdlpGHIR1FoQpasfT9R9lU0Z8Yk1vJW4rGJDqhf4r1zZUYjS4foHd1ecx%2Bm1y0vz7Ze40JCOC9v5n498iR0iQcKjLHaDjFfQ3EPSpIGDlcmpz7Y2pDCdVZZRXZPip6g2fE9xdHk6gTdyPDW4xGAQVV4uu3rc3aU0YyK%7Ctkp%3ABk9SR9KCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387856073922?_skw=PSA+10&amp;epid=13061280121&amp;hash=item5a4e0604c2:g:YMAAAOSwf9hnk-rK&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmZa1AL6XEcV65%2FMM9nJ8Z9LvMkXD2a8wdfP%2BtKCzSyxaqHpSXaI2UzZDZM8o%2Fqt%2FGUDM5c6lIsBIQvq4uv1e3BEgYGmTl00vVY2JUyJWxwtlPC8OeP4VKW%2FjtTmIGZWY%2Be4yL6e%2BuUaN7%2FxgjPfp5VyJsXxyytR9IC3Zz%2B66z0Adv49WGmt81iHMArpDv74N59A2q6Gs%2FcMuhUkryBUnoX71b0TCF%2FfUMKXcyR8xMS8Q%3D%3D%7Ctkp%3ABk9SR7ztrZSaZQ</t>
+          <t>https://www.ebay.com/itm/387856073922?_skw=PSA+10&amp;epid=13061280121&amp;hash=item5a4e0604c2:g:YMAAAOSwf9hnk-rK&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmZa1AL6XEcV65%2FMM9nJ8Z9LvMkXD2a8wdfP%2BtKCzSyxU4ALJaLObLG1SRiDHymbW9%2BSnp%2BbKCLvrhw8RwfOVvxsLCaT8JeUv0GceunAajlugpTg3Ek145%2BjNUe%2BF3Pyyp9g05g8ogUyojS%2BwvPer8QJKeIe%2BPm8AWVZzAI6cGXBN5b8jHKT%2FbC5WkuHPgEsfhISRE%2BJ4Aore9M81eu2d%2FiWXLH6JAccczPYEx8rjvjHQ%3D%3D%7Ctkp%3ABk9SR9SCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387856074725?_skw=PSA+10&amp;epid=17056469263&amp;hash=item5a4e0607e5:g:QuwAAOSwqaJnk-re&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnvbbAjq%2BliafIQ5eJKwMsOeU%2FT7HJCgxr0wFNGZAXcohEiVfVWnI8PwPEU7Sjy2EPK5lu1eBlDMmW0r3HvNtbuLpeDwkUduSvQU3hpVAZj6g5zm73l%2B2lG2vyAXfa7Sw72ry85WxFlruODTb5H3p7r%2FPnocBO4CXK8LuJ6e6SIvENjyEdxw2BkF3CGEBHqJswczUpsb7JU7MdGmPUM6ceZrratdW%2BNTB7G1EawVCsh2w%2BfFJPgzQuukPKmzHwmOGQkUIEgKVpxNiQP6%2FJtNg5l%7Ctkp%3ABk9SR7ztrZSaZQ</t>
+          <t>https://www.ebay.com/itm/387856074725?_skw=PSA+10&amp;epid=17056469263&amp;hash=item5a4e0607e5:g:QuwAAOSwqaJnk-re&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnvbbAjq%2BliafIQ5eJKwMsOeU%2FT7HJCgxr0wFNGZAXcohEiVfVWnI8PwPEU7Sjy2EPK5lu1eBlDMmW0r3HvNtbuLpeDwkUduSvQU3hpVAZj6g5zm73l%2B2lG2vyAXfa7Sw7cT3b0rASWuT7yPzQ4j9PYSeSQbxQX4%2BWWJrElaOTIVdoU4lh5GmW%2BAKBQAaD9s5Yln3AZygbj%2BvbUTYwbQrt2Ol74bUeh0eTLGSQ0o7Itd9ifeiSvPzcowDwG392tsfF%2F1GEjQf1sGjliqhjhMk4k%7Ctkp%3ABk9SR9SCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866455235?_skw=PSA+10&amp;hash=item5a4ea46cc3:g:17YAAOSwxrFnl-fJ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmPLu%2FWA39ZKAtI9fEX88Ms%2Fj4bJSxCi1Vc5HWQAwwgO5c8nUhlEvL%2FQw51PJzmfesEG4wgLcK7cWQwz0kxeiGbY%2F8XAWTf16k79Ia7zNCn3illfGtz2sXaaQVqjwOiAIZfQF%2FALplUFeyLM5E6SsKY03hTEHxd4WHD4yW7NC9dY8VLItN5yN0cfdr7saL4%2Fpsmonz4B7Zd7yhpTeBobVbw4inZkrTcZpEIRbNz4rDziA%3D%3D%7Ctkp%3ABk9SR7ztrZSaZQ</t>
+          <t>https://www.ebay.com/itm/387866455235?_skw=PSA+10&amp;hash=item5a4ea46cc3:g:17YAAOSwxrFnl-fJ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlc%2BkkWSH4YU8XauCchFkimMUhQgy%2BdJyZYRFaKcLnWM6UqhA4GnYVqMeDDmbxO3WTTHzZWXsjN%2Fh15DQkon805jyS0vquoqJQ%2BDv9bG7ofLxNL0bd5RM2HQauTs7aq%2F04dz2DIB5%2B3hX96c33s5iigtaqTjdl5Kqljy%2BCq1TR5n811We16No2Ldu7L6dnunvkmLtx%2F1NRzXZRxf1V%2FFKoUEItIOWT2aXf2m9KWcnfUteNtjtPPzGt%2B7ff34NsWujvx25JoPn6%2FfX5eOejXY0cF%7Ctkp%3ABk9SR9SCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387856049754?_skw=PSA+10&amp;epid=25057863369&amp;hash=item5a4e05a65a:g:yNkAAOSw-ZFnk-c7&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmE1NBuiuzT7WuHfYO1IbZEBASEZiLXR0EiBlCynMl08NJpEcCW641UoQ4EkKgAHIO5ANJnWs6PMPlcPcp2pdzOvIw4DfyyWSW5YY7tL1P3VlpEIYsXMWHByy25BWwUHs2mbkY9ODOhxZf%2Bj3P7mb%2FbWsfWpTlL0zf62coijrmcK2K%2FWyf%2FYlhP1aB07jmYt4SgiXXf6w6%2BvmE%2BNpWDnxF2uW6jCuYSsHWW79BRvURy26oHwne5cARSF5LSFUnEfAXkfkepSxJPKBYEEz9xhfqa%7Ctkp%3ABk9SR7ztrZSaZQ</t>
+          <t>https://www.ebay.com/itm/387856049754?_skw=PSA+10&amp;epid=25057863369&amp;hash=item5a4e05a65a:g:yNkAAOSw-ZFnk-c7&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkD0KXO6FUtn0kTdFgJxWYUSRIzOA3unHDRnvgPjBQZKhOLdzGV8KpDNitIRmvHBt1taZ8aowH1O%2BkyavxA36mAaoNVET2csYD768bVtiBeAMbbNtIYEn%2FiL4e%2BZ1teZ6K1kXAwKZDqgCmwyNX9uc2D8f773mirGHOkyC39bj5dtFKikCmSLtT8pkzioBSL0qYhwXPo6xr5XR3YuAzdjDCgWvtFSGflKwwj6k3mSOB%2B0g%3D%3D%7Ctkp%3ABk9SR9SCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366700980?_skw=PSA+10&amp;epid=2344641296&amp;hash=item55118d6bb4:g:9PkAAOSwaAhnl7-B&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnDp0bdn%2FY4TUG%2FrKISNQunaxbc5VIsm3GIM03cctghKf7X%2FkOmXrphAczQv02MFkW2HxSPduS59whrHB7N26JdvHsST5wxFw7nay8U6tnPWDThcnrHi41gAYd6cmobYFdUwgP7YVHuo57NL1aJIaX8CkuUdpMZxl06ZUPlRsQtZQDidr4%2FFmNcP7pawFiwSyA51YNuPXgGpBPjXeLbd6reQ1RaBVuEcdl0ufpkJQTyTA%3D%3D%7Ctkp%3ABk9SR7ztrZSaZQ</t>
+          <t>https://www.ebay.com/itm/365366700980?_skw=PSA+10&amp;epid=2344641296&amp;hash=item55118d6bb4:g:9PkAAOSwaAhnl7-B&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnDp0bdn%2FY4TUG%2FrKISNQunaxbc5VIsm3GIM03cctghKVvPt22WiW6PHSoABSNfiM3DknaxwAy8ULpC8kygTRa2WMkcF35cuN8jpkFt4fsw0pDpiNM46Y6tn37APxtkytR93hKfndWcSMECmu4DdrSTX5d%2BuwllBXCWb5XKMdJLn6oGUcQveONJnzHhbJzv32r5k4AS5eiXBQSUhxMftSQWqGcDVbEMmE7Q%2F9aLIdF%2ByA%3D%3D%7Ctkp%3ABk9SR9SCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866184336?_skw=PSA+10&amp;hash=item5a4ea04a90:g:QQMAAOSwuf5nl7~k&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlp4R6QyfbcFCptMZXMn1IaRiR%2Bacm0zPnMBw8BjhbGEW8o4FqfvJ52M0tORh%2FaHnTzq%2F7EyNuiEAdQ87TaUxDhSK%2FzbrtiG8n2LWR5QdEfMeM2DT%2FwYRwe3vuAnbsmGHWIscnn8%2BfvhrKLqYYmDoQbTdPbN7uebEAz173CHpjrSAUP6Q8WFyXjU1LCvHIwwDw4YXGwi8Kt%2BECtdKbgHml3qO5jYKTclD3GhGqjyn5dRw%3D%3D%7Ctkp%3ABk9SR7ztrZSaZQ</t>
+          <t>https://www.ebay.com/itm/387866184336?_skw=PSA+10&amp;hash=item5a4ea04a90:g:QQMAAOSwuf5nl7~k&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlp4R6QyfbcFCptMZXMn1IaRiR%2Bacm0zPnMBw8BjhbGEUoe5VjRDjydPWAJ8B9vMFZPaNep%2FKWvF%2FbL5GzdrAYbfu7BdyFY%2B6LcINuXNxC%2Bi0mUTJ2JDUULDOINHbkHNg0vWwuO0xpv95XlGDHdUuMl3l8RFdy5tEWxEUcuhPTgXz9OIaZ3IAY%2BxOS48CZoq6afC1k3V5kIFmJxwC3qeyMCJ3QbfrY%2B62UsLyxHG%2FjOyw%3D%3D%7Ctkp%3ABk9SR9SCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366650712?_skw=PSA+10&amp;epid=19062496047&amp;hash=item55118ca758:g:cggAAOSwBFNnl7Ol&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmykDmQL%2BI2EtSch9dStT%2FDZ%2B4wZvtcDm07W6K9fyZGvBpXj0bxdePgpf07YGIL2G0M5lIjXw03vOAarKFXgV3TiJVFTVesiT7zGmjf9OjRsYouL25MIqIUc8COh%2FkPJyp4VGv5mCiriMfjOCO%2F1XI9Qg%2F9%2FQubtV7XtXZNmGbZN%2FHKNpm1OM8CnSzr7L2097Mm%2B%2FAwuRE37rxq%2FffDO%2BsynhOdIVvQxr2xxs6nkEMySg%3D%3D%7Ctkp%3ABk9SR7ztrZSaZQ</t>
+          <t>https://www.ebay.com/itm/365366650712?_skw=PSA+10&amp;epid=19062496047&amp;hash=item55118ca758:g:cggAAOSwBFNnl7Ol&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmiUbC0OY1YJKgm5N5KiRxti8o5D0%2FJ6LxzE79miy7pvMpHweOQsmEj95Jkil3MqK5A9%2F6KgRMTaPzQFbRtQze7n%2FTEdGKeeqMcVM%2BcxneuMZYbX3TznWlhtWGMePkmFaLODDLWZXAVnn%2F5nn5nswWkd25NyGflub%2Fmyvxf2DmbOJ7tpMGdExvS4m4l4tqLmYL%2FgCiieNq1mmz9t08uPEgFa2bUznsPQrZE8P0NJSXbRbQLdYxZNShIZMG8bpBLhxiOLIyOaiVpx1MoMiGtw12U%7Ctkp%3ABk9SR9SCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866056387?_skw=PSA+10&amp;epid=27059314487&amp;hash=item5a4e9e56c3:g:gnwAAOSwCvBnl7PN&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkda7ObDQ8tV1Mq2Jku65Xf%2BET%2BuIm8t48X3I8eXuU7OHxbQs5yKhOR86lJELCE2wmOatBaPICJkTFBWoQGIVHg1iAvl7jocZUA6a80SbjoHfEPcoLQGZhgHfhwSvnVeO9b1xWDs1I%2F4hp4JC82yqHtcGuYlx5cEQj2lgX0GXI0cx7JdoROTMaOfaN1g0XdpAK1E4Dly1nStyH2AhTaCP2i5q1q0bA7quc8RcIx1Bro6A%3D%3D%7Ctkp%3ABk9SR7ztrZSaZQ</t>
+          <t>https://www.ebay.com/itm/387866056387?_skw=PSA+10&amp;epid=27059314487&amp;hash=item5a4e9e56c3:g:gnwAAOSwCvBnl7PN&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkda7ObDQ8tV1Mq2Jku65Xf%2BET%2BuIm8t48X3I8eXuU7OBf7711Ev%2BmbDqKWUDUZ%2BwOInAUhTW8ybREIZIkhkj39oK2cK2QjuyGSaJOWyq8KGBs7Pq7iOqBulch1IYszIZ1LHBfoCeI79JJKF89ZFa2j3lQix7MhmLtTcDRuia2%2B%2FHgu4eE%2BE8UPobzwSsRokIST1H%2FGGVu8jmf3vQbEzPV%2FSd0kH9bU3PrL21urOVgS5g%3D%3D%7Ctkp%3ABk9SR9SCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866057676?_skw=PSA+10&amp;epid=25060305120&amp;hash=item5a4e9e5bcc:g:s5wAAOSwxctnl7QF&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkAHbBYLGr0fa8V74WJ72NgLUzjpDW8dQHN%2BBAoQ4Xg4EdRNKSin211sfaQ24miN%2BkPWSQCa6xspWlHuURcWnHP57uSU9s8tYBh6JbQD0h4BIh%2B1bCCEVvgFXiBbXhRp6fdoZIniRypk9eepvVizuB1W922o0s%2Ffir7AsGdNyqhfOBCUS5PxdlaN4XNNV72%2FFZTkmmAH%2BfS4L9konKTysvVxOXq8SpYwxcYxjtpZad21A%3D%3D%7Ctkp%3ABk9SR7ztrZSaZQ</t>
+          <t>https://www.ebay.com/itm/387866057676?_skw=PSA+10&amp;epid=25060305120&amp;hash=item5a4e9e5bcc:g:s5wAAOSwxctnl7QF&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmjtV%2FL0C2fJ%2F2R0Yq%2BdbwDI5vcEMpL3P3lR4PY9cdjFqzrcBfhZQMv04sxlazaKIH6JWg75y2ba1vsXw0izpUdhpxhIlKlwj8vLi%2FG9infSCkD84e%2FQY87FJOSStOQE4SqynPI36YLfJAUGeNKRKxdRHPoh0wOqwp1FfT%2F9zyndDRPvN%2FeUbwl3eg5iENI1IuQQ277jW3LDY%2FcsFHisVI8dN%2BBDaq9NNcdZnMCaojALYZThTUiX3A4nZXsQ2yKbF8HjVKK6OQIRR5N02SVHzby%7Ctkp%3ABk9SR9SCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366918923?_skw=PSA+10&amp;epid=5056568474&amp;hash=item551190bf0b:g:wX4AAOSwaKJnl~TU&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkY70azdBigPIQgmYWOhR4p5Pdow%2BmlwMiCGxegb0D3cPljln9KqYfLmvbJmm33OIbgpzc7fjwpsGTi45acD1YjfA7ta3mDGkD1SYq9QwfaiOrCLQTyGrjGMdxXm%2FG0kI0qMoFQz6KuCHDabnUle9D9s%2FPn%2FRNCygm3WknpPZ5nT2tTu5F0%2FWZHU7rcDRzaiXrPg%2FRVFtkUn1pbndw37pTd%2BrSQGHTnJydXfL0E9%2FeJDL9JG4kHNEpQXCTxKei126nKhqi3%2BjEY72f8F9daHDJ9%7Ctkp%3ABk9SR7ztrZSaZQ</t>
+          <t>https://www.ebay.com/itm/365366918923?_skw=PSA+10&amp;epid=5056568474&amp;hash=item551190bf0b:g:wX4AAOSwaKJnl~TU&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkY70azdBigPIQgmYWOhR4p5Pdow%2BmlwMiCGxegb0D3cPljln9KqYfLmvbJmm33OIbgpzc7fjwpsGTi45acD1YjfA7ta3mDGkD1SYq9QwfaiOrCLQTyGrjGMdxXm%2FG0kI3A2VmMSDMDBlC2%2B3WUyEzd8G4vh1vU5%2Fm9tYforQ7qC0QRzbrmm3DOG4LSdZxvNDlcTzbYJi2TXCNSSYfH4KsTJTON07XXcYnit8PVqN2cMyLUikzujd8cUQ%2F380Lm7P2oO9tSUXUJ7IXBW3XPIw0K%7Ctkp%3ABk9SR9SCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387866376124?_skw=PSA+10&amp;epid=10056474124&amp;hash=item5a4ea337bc:g:8ngAAOSw9rRnl9n7&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKndgrjmunMRWbBPnah8N2imW8PH53KwasmNxIOR7Zkv4aHzRH2dGKezjKukEy0atG9%2FwV0QIZSKVilCU4w%2BJy0Ng11ZoDBoNKk3fU5mNM%2BxkBYJnI%2FiqUCWzmN8bodNGASkWWjoR5rtiAoBc4N4oIMrCdDFqh1V95PW8EJTfYSlkepIsK5psRyZl4QIBh9gH15krQcOy4GhkguG5ax%2BhPkaiE%2BK9l%2FgXrzxWpsyYjwMEA%3D%3D%7Ctkp%3ABk9SR7ztrZSaZQ</t>
+          <t>https://www.ebay.com/itm/387866376124?_skw=PSA+10&amp;epid=10056474124&amp;hash=item5a4ea337bc:g:8ngAAOSw9rRnl9n7&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkgRbkQkEIRQrcjwVJZoQjT%2F9rEQ7eS5pCCw6qIHHTcIxxyOCdSl7J23wivdRU0UquUoFOD8qTgdgaDyz%2Bg9HVjhb1P6zTT3rXW1SQ81IGoY6mg5SZWJFEv61uvalCdvIMG4%2BySRCDuAgwZ4jY3uGkVerkjh5Ur4jWEBo2hZgmn7sbZLR%2FfzjSlkcn6VdPBMXUZ7gD2EXkgaBgo766rAW52AaJWpZS8RaFKHbfxRhwo2B1efE6s%2F0WRyI7BwxFeMdCcnyvnXfaVKH2tAxT7PsEP%7Ctkp%3ABk9SR9SCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306056485519?_skw=PSA+10&amp;epid=20063169192&amp;hash=item4742635a8f:g:YzAAAOSw1ZBnkGNS&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl5EktGEOVFEu%2FqPzH0n1WpG%2BIC1k5WLGwxVaKm3fueCRK2bgOjIS67R60AGIigbVYUL6osD%2BkguaIZpMhRh2CXZjKNzeWDJPAd5nup%2F8SiUresEQodYyqHN2r6cLgU8vvMvBGQXfJdB3OVt4bGQevzVhUUXvJXx6wtRLJL4WG0ayWSOK8lOJZrmwyqlZy7HWJrg89%2BHvcshzlXk97bh5gwIs12nhhi8BWt%2F6a1x1tJQPf4f6KbNc1GdLZ%2FQ1cN0WdiQF1ds5oBiPmRXrJSFvdN%7Ctkp%3ABk9SR7ztrZSaZQ</t>
+          <t>https://www.ebay.com/itm/306056485519?_skw=PSA+10&amp;epid=20063169192&amp;hash=item4742635a8f:g:YzAAAOSw1ZBnkGNS&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlAlLZGl%2Fyb%2FRVWl3VSQ%2F5Bk47x8nF%2Bl2jpRoe%2Bgro01PS7iIGc4MPca2gu5SUOChz729vZ096aFpe4auQ4x79v8iHCSvYI%2FBBEpwVUGvMss7OqQtXmwjKogjK3VqOaVowOFWSO3NjjkIoF%2FIKiZch54PG6FlienVI%2B%2BNICseA%2BoTH0V8b6%2B8Q4d5zhVVKpKVGbjSha4frNFYmwjystPeTeiEGT3D33uFWjxGgvxbBeIg%3D%3D%7Ctkp%3ABk9SR9SCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/365366961502?_skw=PSA+10&amp;hash=item551191655e:g:BagAAOSweSVnmAA~&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkXi0RiTj%2FE5nMzZ26%2BYrC0aeJJnJ3JL7GaoL4bxF5SQcp4juj%2BMwfJzKN1Jg8bHL5Yo7A8QddvsL4BYf453EqmNaI%2BOnKzyXMG8RpbbIV2eWArONGye2PiGQcVdCvJhSl0ceQCDiSxvMwQqVtM%2BL47sfuycFjSosaGGG9zSG934fWWRpJHtlb2LiPHrNyXdrV9dcCHH8aTX70ADP3f%2Fu9DKJ3SLcQuiCXyxP9%2FGuBMVA%3D%3D%7Ctkp%3ABk9SR7ztrZSaZQ</t>
+          <t>https://www.ebay.com/itm/365366961502?_skw=PSA+10&amp;hash=item551191655e:g:BagAAOSweSVnmAA~&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkXi0RiTj%2FE5nMzZ26%2BYrC0aeJJnJ3JL7GaoL4bxF5SQeDO05%2FvY4n0ackERqNVn%2Bg5eh3uRDWNFkqqK2lHdnDrm9f8iVX0EU2jEggx0ZHA0%2FUvCwPzaZAZ8O%2BbQ5MnILlnuDPavLQfk72SgKPJ%2FZDSvZ4rPXXWSpxn72UeVRAk9hL%2F1DiRT0RXtM0UBA0loFFgG%2B3%2FzFCLlmA1SQfWtxB0F9hlR%2FW9YqPa2cAaaylDLQ%3D%3D%7Ctkp%3ABk9SR9aCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176810790496?_skw=PSA+10&amp;epid=27071906139&amp;hash=item292abe8e60:g:Y4sAAOSwgfxnmFGT&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlGIz7Rex3cFMU6BU1AtYMk12wtU0jP%2FRsK%2FU1eMIesQr6z8%2BrtG5jrzhcm0XM5PNEhbmtC%2F4C1MI1ZE%2Fn2uM0yFQHOq3ZobB4fUcdHLq0RNnUpmuDhOdq3qCuYZ%2FsP0Y%2F7lQMEIcaATjaTbjMKV0DjNHq6gPvdNVkBF6jaB3ekzdFm67G1Hk0hn%2BFRp1j2XDRNmsfT4YRT3jGFa1K7a7Golj7PI7KqsF02NKxy%2FVdeRFiyaIp3UHbxcSD6aFs2G2YbPIAz04dWJufWmcCFwhnU%7Ctkp%3ABk9SR7ztrZSaZQ</t>
+          <t>https://www.ebay.com/itm/176810790496?_skw=PSA+10&amp;epid=27071906139&amp;hash=item292abe8e60:g:Y4sAAOSwgfxnmFGT&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlGIz7Rex3cFMU6BU1AtYMk12wtU0jP%2FRsK%2FU1eMIesQr6z8%2BrtG5jrzhcm0XM5PNEhbmtC%2F4C1MI1ZE%2Fn2uM0yFQHOq3ZobB4fUcdHLq0RNnUpmuDhOdq3qCuYZ%2FsP0Y%2FhaAxBL3B632JglqanZgNzvcsFq%2FoRVgLJPD2G3risq4mtvy3qao%2BRX0QoK3o9arr4fISPfEU4JWgWvSoUZPSpatm4NCaLCXxauqq7zLWBepzQEVUHRUkpkgZXhsstPJP5GU52PRe%2B0pgCZOK49dtn%7Ctkp%3ABk9SR9aCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/146310825167?_skw=PSA+10&amp;hash=item2210ce04cf:g:P7UAAOSwWRxndkIX&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmhnc19hbN%2B27W%2Br0QyoM1Dvnn2E3vbQpM1caMNiCQQMnMEeq7zKOf6ZsokQMdxAdTv8p7eS5%2FUcrNnItaayTGCbYI5CR%2FKDDTpFnx8yvKgNstQYRctMHOhadNbs85ajRPVcg%2BFM3bL%2BfQGM3x4TFGHd79TCwd%2Bkv%2FW5teGDMqSrlCI2wWfD%2Fgh9Uj8wS2jc0qNvhMpE0aut1ckKm71ekWSr%2B3UpnvRtEPBxeq3ZsXuPg%3D%3D%7Ctkp%3ABk9SR77trZSaZQ</t>
+          <t>https://www.ebay.com/itm/146310825167?_skw=PSA+10&amp;hash=item2210ce04cf:g:P7UAAOSwWRxndkIX&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmJqwiu3igUHpuuMiZP6si1fFJkEAf1gTh21jbC2%2Fm0VHzI8Avw%2B7%2F3ShwEx4EGQPAPTW64PTYLuTYt6vuSrCH8rvDx4osx2V%2BwyxhzuRjMfn8LWsrMeiGERuVL0W02YjjoWE9h9taYYEMTY4t1UndxPEiDBt292bHkjtKwspHwqag--R23piDzOyRyIXL%2FVqr4Ug0KhR%2B7EJK2KyCAnRjnlFpKFKfg0dl3%2FC1ARm0uVlm%2BkcZUwfL09THkG%2B2RytKX259JBEnXp8pVGC5oMgIE%7Ctkp%3ABk9SR9aCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958394928?_skw=PSA+10&amp;epid=13069553074&amp;hash=item5788ddd830:g:2SYAAeSwaoBnmqX0&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlDTiT4zl%2FI0eStbo5tqkLU%2B4y6kkmg%2FMDYYdLVoDQN1pv%2BBWlizxtrXxJcVBQ1fgO%2BL4FCRzZdNkdb0v7TMNDPkiqGqv5r3eyNLmzrVYFpyombnk7W%2F2hi5KKyjvDNZ3SlZ%2BzEnFxy0WNl4WAGEe71CYwEcZ95UPAdtnwJ9zZxx3EYlvTBW4VZ8Sybh%2Fh0ioTSzoKTeg1JjVwoSkEmGzFDTH0PdvNXBfMRfl9chelwOSRH6jaXSWu9DjJfyTev3zDmLOivQGiu4cHPrTvyKksj%7Ctkp%3ABk9SR77trZSaZQ</t>
+          <t>https://www.ebay.com/itm/375958394928?_skw=PSA+10&amp;epid=13069553074&amp;hash=item5788ddd830:g:2SYAAeSwaoBnmqX0&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnxlb2M3nKV1ptlXtp8JlSZ0MqZ9cbhuVX2ZmoqkVU8PMY8QOw%2BY7aHyodWoP08%2FVnNFyyEVrgTp1fd%2BIT1PfkoDpxxHpr7gkCURkiSIepSMv7y3jClHj2beOkABdeqfv87u2tYT%2BoDlzRCFtdFHIp8QVq7ZB4HioT9awJ1pTPZ%2F8oEB0RV32dxYb5heg5S3cNrxfifnhNSTPGIdLvBmr3XR%2BYdO%2B%2BfI4fgmBnwUXX%2B5A%3D%3D%7Ctkp%3ABk9SR9aCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375958394925?_skw=PSA+10&amp;epid=12069544225&amp;hash=item5788ddd82d:g:uGcAAeSwNfRnmqVT&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKk8t3bcL5LUS9LrjxF6LXIv7chb7MhGZ1pts4gsn7vc8ggE%2F96qCy6AlNu7d6%2B%2BnkH4YQbChLq84lGBMiPnf4c629N3ZsvqTFBf6tsmxsoGEeE%2FiV6yamZfkEaqGxv7eWpk1VAM9hn75%2Ba4E8jdDFYEWPmCXe9YoFs2mNE4JGBywZRMkqnUFnDxxUj30bw4v1ZC77%2FTJbcbuoyQ2f8JOP1e7f8fnXZaIpujyt0qhvtMAw%3D%3D%7Ctkp%3ABk9SR77trZSaZQ</t>
+          <t>https://www.ebay.com/itm/375958394925?_skw=PSA+10&amp;epid=12069544225&amp;hash=item5788ddd82d:g:uGcAAeSwNfRnmqVT&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk6Ee65CqkiKaBiuD1qx4bszy8T72QTv6MJGQ2iZ52mtTgRfDf71MVPGgMemEvKLhuTK8wnrr8IUMVRBlRy7HZU5xV3%2F6yeN8Tsu8h7Qfvvjy9axU%2BnF7DOkEoAMtotDmKupUSs0pg%2FrQibrjxisdcjwCTe7IIgHakZOmJafe2vtSRO4X7OoktlHX0FQAXZ9uED14cYRrkPBosdutmJpuE1Bye%2BW5%2FL6Vlgm4cO11tQtJ9YdYcsO05rKLnQusgliQBs5Ie3nhiwL4EQ6sQnBp5Q%7Ctkp%3ABk9SR9aCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/306082756897?_skw=PSA+10&amp;hash=item4743f43921:g:BL0AAOSw0zdneHPq&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmxRbuDtqkQw7vD2ARauwKki2y9ofYjqEV7foQVDAfobmcDXmkfvK4jM2XJaUxgVt8%2FYSYtgfS4%2FZIg751qe%2BJG9hGrGwsl9rSAkE7jHLnOpEibRaLcULOv25mztRaarRCrdhfK1WTcSVpspDAXy13VxByxTPeBenbaqzhHl1oVMJaA7FzrGOBpmNyuTTvQR95hqAfGknnVoV0monKgexa76f%2FBhQRFUtc2gTH2pnHOLtlPByQzGcWQlMkWcKV%2B0372yPYmWkRdSHFK6z2OTJdM%7Ctkp%3ABk9SR77trZSaZQ</t>
+          <t>https://www.ebay.com/itm/306082756897?_skw=PSA+10&amp;hash=item4743f43921:g:BL0AAOSw0zdneHPq&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn4Pc0OQx24oUzGRlKTQ%2FSjz5KcurbjPJjb2vnbJVLwqXs%2BZxtYgD2oRBe81%2FC4exfcH52fOR4tvK9ntOECtjPCRV%2FtMa3OodrlLJwDEwQHsN8oT6lsAEKA%2F2fmOIBpdErXUxxHXYUBEKUm4WpSrk1L%2BxGn%2FW80pQVTDtnt9encaPU3GG4eg4Rp%2FWgDQbzgRaUORoM76mrV850EiJqlJP7CDh1WU2qsMqgICber6KGrzQ%3D%3D%7Ctkp%3ABk9SR9aCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -1823,27 +1823,23 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Topps Pristine Road to The Euros 2024</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
-      </c>
+          <t>Donruss</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Marco van Basten</t>
+          <t>Christian Pulisic</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>$325.00</t>
+          <t>$175.00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1853,7 +1849,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176574602103?_skw=PSA+10&amp;hash=item291caa9b77:g:MsQAAOSw2jBmz7-7&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmXh3k8v%2F9es3gGWkJExGfPhj5RRyzq0XgYvJIdnS7ZFVQoYeX%2B9FY00Gz2KbL0BGJbla90AdMN8zDMjT0V3pMZ0hNygZkVl1z9T5%2BpDXiQXTd9MZMpSGf%2BqoNXgOzi2IIndRxih6Mqu9Mlom7yXTVxMtqF4k2p7AqlkLPsFWIb%2FPe9s3fcqKysf1FhdQ%2FpmW3Aqj57NhqHrlVuDygxJCZzSZ03GJIRxHBsE6eL37skt8wJ85Qbp%2FoXhbSxCJJyzuawkEedEqfYjc0Ckptp57KS%7Ctkp%3ABk9SR77trZSaZQ</t>
+          <t>https://www.ebay.com/itm/126887131837?_skw=PSA+10&amp;epid=9056582512&amp;hash=item1d8b0ffabd:g:zWEAAOSw6xRniaw5&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnXaTttvQUgIBG%2FEkhk0fOXTp9c8c%2FgwFO3Gcre2%2BZNkznslRcpgK08uXHJxEAodj2qpX0HSd17teSbzIoxILvV04FRDc3HJ4HwIH7gWO%2BtuQJP2bS9zBVyhswsnBZ206Rk9%2Bc%2FKkLrUjHCJRTepbMKU%2BivX3Zt5hnFNzgfpCgGmQwZp2GvJkr6UoyqS5RxbrGCMyr%2BAIVJSWPlhCT%2Bn9XIeHHA4aThuyXPTkoeeNo3%2FQ%3D%3D%7Ctkp%3ABk9SR9aCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -1865,27 +1861,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Topps Chrome</t>
+          <t>Topps Pristine Road to The Euros 2024</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Refractor</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Lionel Messi</t>
+          <t>Marco van Basten</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>$200.00</t>
+          <t>$325.00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1895,7 +1891,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235796744946?_skw=PSA+10&amp;hash=item36e694caf2:g:2HsAAOSwU0xnFoxi&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkuGCitY4x95EabK9tuPnYX1E9JEgLa42mLAFSC9yym%2FyKkFgVwdQjfDdBOQgIo82ChINijjyOPMvkgXMzl3dlsJI344u7C3j1V1SVwZbWJFd419uqujWxauKYFCY3MJxfKEoLKvk7Acv3HNwQddHvJWrWv9SpfsE73588xlQdlhKL6W%2FeYlAz%2FVGXNLxSeLz4gCrqQjuxARiRfrjbabHxDyI%2BUpCyuqzRkiWjzVPCPxA%3D%3D%7Ctkp%3ABk9SR77trZSaZQ</t>
+          <t>https://www.ebay.com/itm/176574602103?_skw=PSA+10&amp;hash=item291caa9b77:g:MsQAAOSw2jBmz7-7&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmXh3k8v%2F9es3gGWkJExGfPhj5RRyzq0XgYvJIdnS7ZFVQoYeX%2B9FY00Gz2KbL0BGJbla90AdMN8zDMjT0V3pMZ0hNygZkVl1z9T5%2BpDXiQXTd9MZMpSGf%2BqoNXgOzi2ILvRDfSmlqhe5VICERVR8cK%2Fafc1MBGtxFvuOdfGqCGoYa4FQtrAwnWhmWgsLcmIRHnPNsvGYLF0hCLGFp4Caj8nCoK74ruK7K703L0aKK0e5a1TRj%2BwPkdBCleQrFjo2AXs8d4vz%2Fe16%2FlwW5Radgf%7Ctkp%3ABk9SR9aCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -1907,27 +1903,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Topps Chrome MLS</t>
+          <t>Topps Chrome</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Hidden Gems</t>
+          <t>Refractor</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Luis Suárez</t>
+          <t>Lionel Messi</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>$269.99</t>
+          <t>$200.00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1937,7 +1933,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/276821367403?_skw=PSA+10&amp;hash=item4073d6da6b:g:qi8AAOSw30BnjCNn&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnbQGeLK39J2O2Xh5vjvDu0Z0kC9zuz4R2%2BJ2F4xyyWbPUQv3bnzqsi1QwRafE27UQ7YTKW1%2BYC2luGOFMDudmWjSXShKginGnRmj0erslbKtpYbnCPiZsBjoDZQxezZ8h7ZE%2BZAY1jfPPfa32yuuS%2FxnnGR0nlOh2u%2F2v%2F5sZwe7ZsNglgnRAZ6QJACcZaEuZi1qebBMtOLBfoT7vEaiQvt5FU62qdYqKK4H%2FOVWgVjza6Hljr7tOdQxXehy%2BNRwYQu2%2BUESGJq613hyUdVOeV%7Ctkp%3ABk9SR77trZSaZQ</t>
+          <t>https://www.ebay.com/itm/235796744946?_skw=PSA+10&amp;hash=item36e694caf2:g:2HsAAOSwU0xnFoxi&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkuGCitY4x95EabK9tuPnYX1E9JEgLa42mLAFSC9yym%2FxizUoHNSez16p0QLSqIZa7PTYY%2Bww3LG5aPiDfvADF57qLHJ3CiwXcU07r3ojIl9uOIzjQffJoWUACN7b2D2uMJLIUPBUGEeRrqoUzkSvL6S04WAxwTK4m9%2FEWgr95lQlX1RAgMNu%2BiWna%2BGrjKUA%2FF0NH5y9MvkU6cZXTGIV%2BtEo5M%2FaUYVl8wnOlmELiLkw%3D%3D%7Ctkp%3ABk9SR9iCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -1954,22 +1950,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Select Premier League</t>
+          <t>Topps Chrome MLS</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Red IceRookie PSA 10</t>
+          <t>Hidden Gems</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ethan Nwaneri</t>
+          <t>Luis Suárez</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>$159.92</t>
+          <t>$269.99</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1979,7 +1975,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267093435435?_skw=PSA+10&amp;epid=13069553617&amp;hash=item3e3002642b:g:aQMAAOSwwdlnWBxR&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkaZYTu5S4mD2MAMl3fobm81eMc1AbS%2FTVgwgknq6wsboPJ8aV7HKakwvYEYUU0I1lNEWnkI0v%2BeR3GN9Doec4uokRhARy4bXEcQ1NXVSkL7WbES%2BsrVqs2vSm792PH%2BBQ9Jd0TRWrm1z%2FOMoCXHtyIiGojlyvpCoX4ZwL3%2BRPyxZia5OWoigi2i9Yu8ERew2NLJ1WBBEQBoYpn6YoJc5R93hVSzNeJCLerG66nAWF%2F%2B01JxU4zsD1cF8mi%2B%2FebSeCihrZID%2F3shFcQr4JLN8It%7Ctkp%3ABk9SR77trZSaZQ</t>
+          <t>https://www.ebay.com/itm/276821367403?_skw=PSA+10&amp;hash=item4073d6da6b:g:qi8AAOSw30BnjCNn&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnbQGeLK39J2O2Xh5vjvDu0Z0kC9zuz4R2%2BJ2F4xyyWbPUQv3bnzqsi1QwRafE27UQ7YTKW1%2BYC2luGOFMDudmWjSXShKginGnRmj0erslbKtpYbnCPiZsBjoDZQxezZ8iKyzTlrZldSnq5Hetc6eeWRQ8pfDGTTohUh2Sw6gUM2rRG4jQC601GMNWU11KnuTSmZCEYZ3AaDcuWX4XBFto41Ag%2B%2BOt6frFa6sleDSA7%2Fdf9gs%2BlhZzZcMLuOK2VNX2u163SfPBZgCVAmLPfdmAH%7Ctkp%3ABk9SR9iCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -1991,27 +1987,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Topps Finest UEFA Club Competitions</t>
+          <t>Select Premier League</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Red IceRookie PSA 10</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Mohamed Salah</t>
+          <t>Ethan Nwaneri</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>$159.99</t>
+          <t>$159.92</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2021,7 +2017,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/395960174872?_skw=PSA+10&amp;epid=5063176494&amp;hash=item5c3110c918:g:E8kAAOSwDipnTTEp&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkx7gxD%2FXnqETeYMyl9lm3ksX7CssZGtSvHRu0AVA645y05pb7dvodA2bCzrccUvAzbo3OjqOcly8F6HtR%2F6UVAqsKjIS4GKnh3Mc66vlT8YVH86GYN1LAyqoQGO%2BuSImeAwftcnU07%2BaGUX9lr77TMUXSrpotQ5LsNljV1Emt9WnaEgzokY%2Bs3U%2BQV4a6uL1jORRUEtOidzg4lQyCiHGpmzkMrC8PKMO1FBYqLcaJZYzi2%2BaP4dSYWc0lnLAg4XsYndCM6TB8aL7PHiEdo9z20%7Ctkp%3ABk9SR77trZSaZQ</t>
+          <t>https://www.ebay.com/itm/267093435435?_skw=PSA+10&amp;epid=13069553617&amp;hash=item3e3002642b:g:aQMAAOSwwdlnWBxR&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkaZYTu5S4mD2MAMl3fobm81eMc1AbS%2FTVgwgknq6wsboPJ8aV7HKakwvYEYUU0I1lNEWnkI0v%2BeR3GN9Doec4uokRhARy4bXEcQ1NXVSkL7WbES%2BsrVqs2vSm792PH%2BBR%2FX02TFlP1Td7cuY7x6bXbGURiaYxICVj1dCP814qLY0ZzJP8U%2FuWI0OlJv%2F185h%2Br026uRlZovGPJaMUPw1PhacpEnjP7m2mFtQc%2FvBv7lXDl7s6JFWVAbfMFviZ8v6eproyQdMAqeIR6pb9LaXDB%7Ctkp%3ABk9SR9iCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -2033,27 +2029,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Panini Select La Liga</t>
+          <t>Topps Finest UEFA Club Competitions</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Zebra Prizm</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Raphinha</t>
+          <t>Mohamed Salah</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>$199.99</t>
+          <t>$159.99</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2063,7 +2059,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167253388353?_skw=PSA+10&amp;epid=8068701429&amp;hash=item26f1142c41:g:IbYAAOSw81Znhwve&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmkKPEUefWmeBsETI3DECUkm6mu4nBELpmKcfsrYBTGh0cKiAqbCuiT5Bia4d%2F7rLC5L51lO8y%2Bz6f5t2Kz6TtFn5QRAr8Vw2yas5ge64OY4sYUSkL92ssArgv64AM%2B7So%2B7LIdFH8Xh%2BNbb%2BV7t5x4OcptyOIq1WMRWvY%2FhB0JY2p%2BHfdL5w1olLs8Zrqt%2F%2B18FNpb3CZD%2BMpmBOq969863sinnzkViIXHtZfvZj4hmL%2FggHFGZXFFABsPsMR9zrf67Iz9K8ZlYeD8QtiPfzXl%7Ctkp%3ABk9SR77trZSaZQ</t>
+          <t>https://www.ebay.com/itm/395960174872?_skw=PSA+10&amp;epid=5063176494&amp;hash=item5c3110c918:g:E8kAAOSwDipnTTEp&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkx7gxD%2FXnqETeYMyl9lm3ksX7CssZGtSvHRu0AVA645y05pb7dvodA2bCzrccUvAzbo3OjqOcly8F6HtR%2F6UVAqsKjIS4GKnh3Mc66vlT8YVH86GYN1LAyqoQGO%2BuSImeP4%2Fn92ABgCh2pxj5Yxdjb%2F3Dz4Pd0JKWG5lqcOvtd%2FTQUpsu8KJhDgZ%2F7MjPHp3ZovJmQ6LjoxRmpyAyO1EXhcbrhLCv5SI23Og0j%2Fpmg2a1ALU4OuJqywF3NUdg6NkYuv7nVAsVAC%2Bn7xiBqOce4%7Ctkp%3ABk9SR9iCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -2080,22 +2076,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Topps UEFA Club Competitions</t>
+          <t>Panini Select La Liga</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Gold Foilboard</t>
+          <t>Zebra Prizm</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Lionel Messi, Cristiano Ronaldo, Diego Maradona, Nico Paz, Alejandro Garnacho, Ethan Nwaneri, Lamine Yamal, Kenan Yildiz, Francesco Camarda, Viktor Gyokeres, Mohamed Salah, Endrick, Arda Guler, Oscar Bobb</t>
+          <t>Raphinha</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>$399.99</t>
+          <t>$199.99</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2105,7 +2101,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/395867316201?_skw=PSA+10&amp;epid=14067034665&amp;hash=item5c2b87dfe9:g:eGMAAOSwdKtnKQri&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmrsGhqqS56SU7KuouWw4A%2F3sNz2QMV9AYU%2Fwjq2GwSSiC5UgKoBI0u5YnfUJo%2FQD2uk5AgkHblWeJUag75vn5bLXVzLXsf77dVJqPTr2RbwrLYBoW6kBzXSB8ebI%2FHBMNbOsXHrufVNb74ktj2UOlnx7tUTi5LDwVn0n2MG0wBs%2FohKcFlAGjKWHzRcbDdOnvmNQ%2BDhQM9xWNZxRT4ojhy9CHsmh4x%2F2yAahZ50lGk2Q%3D%3D%7Ctkp%3ABk9SR77trZSaZQ</t>
+          <t>https://www.ebay.com/itm/167253388353?_skw=PSA+10&amp;epid=8068701429&amp;hash=item26f1142c41:g:IbYAAOSw81Znhwve&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmFmiA9f%2BaTJfzsvvfz7YgKqZ3u037xkZD2MizshqjLMs%2FYmm1BH4Y0vNkk0ZRuZkLdKs7VXrXKjAfTFMUocxVMODdT7NdQWSt4sg9Rh3GubL5THRS652C%2BvhMo1my10tI%2FfY8fvQCeqXDtOS78KPzvD9ytmKq82HyBOgmRJUurCLN7Ndhl669sl50pEfbR2MLGNE2W%2FsaNQg4YUqgy0b1NdA%2FFa3duI%2B4aoH8PFo3FqA%3D%3D%7Ctkp%3ABk9SR9iCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -2117,27 +2113,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Topps Chrome</t>
+          <t>Topps UEFA Club Competitions</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Gold Foilboard</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Ryan Gravenberch</t>
+          <t>Lionel Messi, Cristiano Ronaldo, Diego Maradona, Nico Paz, Alejandro Garnacho, Ethan Nwaneri, Lamine Yamal, Kenan Yildiz, Francesco Camarda, Viktor Gyokeres, Mohamed Salah, Endrick, Arda Guler, Oscar Bobb</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>$949.00</t>
+          <t>$399.99</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2147,7 +2143,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/155734217368?_skw=PSA+10&amp;epid=8056478092&amp;hash=item24427b9298:g:7R8AAOSwQppk5ndj&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkVgHHpH2fkyJQRb3dxUGecdwkQkdmAhiWBBbjg0%2FrodzV03Yy06Sa2DY4gvDae%2FMNFN1FkmVHQOlfqlfiyTYu%2FrQ1NZXUJX7S8INHTghYaAFaMnzuUxo4BQlwy9EUZ6TjptWhaLoYlE9legYLrpxgvSZ%2FUd4%2B0NhmwsAjtLlBVbcW3DfZNvK827hiKQsy8xuAQGyTqkJjNGc2JkB75MUOLzUpNobnSNK1eZh2jiWlXZw%3D%3D%7Ctkp%3ABk9SR8DtrZSaZQ</t>
+          <t>https://www.ebay.com/itm/395867316201?_skw=PSA+10&amp;epid=14067034665&amp;hash=item5c2b87dfe9:g:eGMAAOSwdKtnKQri&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmrsGhqqS56SU7KuouWw4A%2F3sNz2QMV9AYU%2Fwjq2GwSSlvOJVikBeSkUY0R%2B9J0RLPiOJr0KGWUdZ3E%2BEoR8GY6z%2FVENXDeldm7htzxeLE6WEIyRoAJhT%2Fez%2FlFBY7knMSsOdRK5pn%2BG%2BK95xANpuKB8NDHZCGXMgjw%2FM1fR5wxViP99v2LnAerqGS28UZhvTPF5gmtHTB6Ki3WMxI%2Bu0abQUMr4TgT1fkfEw9%2FNQODqA%3D%3D%7Ctkp%3ABk9SR9iCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -2159,27 +2155,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Panini Prizm CONMEBOL Copa America</t>
+          <t>Topps Chrome</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Gold Prizm</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Kendry Paez</t>
+          <t>Ryan Gravenberch</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>$199.00</t>
+          <t>$949.00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2189,7 +2185,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256799554735?_skw=PSA+10&amp;epid=13070460896&amp;hash=item3bca723caf:g:QwoAAOSwMVdnknyn&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmwHEP3Yw31dYojPiwNNlzP%2FWwQf57Sm4mX89LTPp21MYIa9toUQ9z7UB6%2F37zCaGj7rUo9QJr1tqkJcPMkEvPK8LVoX66HYKNYX1QmVa4GPRir6NuOQZroW7mCVKx0pNBFWvpg%2F9fXwCOGd2iCKgQzjjNvB7%2FHzWXG0kTqWJpnTPsLdQywFcCodtNT5h1gBSKJxV8WuBvta5DgdnmHPVgE6ugn7vlEC%2B4w4WyXqRLPBcKBZFjsa7csLnk%2BSjDr9spvkfBfmYjitdsnQTv7Y4eH%7Ctkp%3ABk9SR8DtrZSaZQ</t>
+          <t>https://www.ebay.com/itm/155734217368?_skw=PSA+10&amp;epid=8056478092&amp;hash=item24427b9298:g:7R8AAOSwQppk5ndj&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkVgHHpH2fkyJQRb3dxUGecdwkQkdmAhiWBBbjg0%2Frod%2FzeT7bDNQrPnLIdGQqTAVFQ%2F9bccxWHzlQFfQygoHIS7QE8ZY72vykuJ2gijaq%2Busnx3O9v%2BLmYyf3OUiTojaLXmKtr7KDJ0JDHxtOzFD6Xa8Ov0X2xio3ZQouo5S%2FP%2BmbIKQzM8m8x6nV3ifGTkvGELTy8emErTsztgRV%2BZyAOuuUnCO1s2q0FlkcArA4BCQ%3D%3D%7Ctkp%3ABk9SR9iCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -2201,27 +2197,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Topps Chrome</t>
+          <t>Panini Prizm CONMEBOL Copa America</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Flash</t>
+          <t>Gold Prizm</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Erling Haaland</t>
+          <t>Kendry Paez</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>$300.00</t>
+          <t>$199.00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2231,7 +2227,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267044891224?_skw=PSA+10&amp;epid=5056477244&amp;hash=item3e2d1daa58:g:ABYAAOSwN0RnIB~1&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmYq3RHU3MvLD%2BMVkm45DXy%2BIGVvsnluogP62qg1n%2FfLQUDe3rHkobURAmW3p0wN22XYz%2Btcf4QVbpKRL97VcxXUveofS1qB1v%2FVX8vuW%2BqaELey8uWxVTNwZ6WvyQnspgtfptKG%2FDnxGqO1h%2Bsj2ERX5PHZtoRhDRpUomgf5LLVGOxgC1Wolj%2BAtkyZANkbufki8PDCsWYqJAt25QIS%2BnVP9FgSb3BmzfzBeHG4hICjQ%3D%3D%7Ctkp%3ABk9SR8DtrZSaZQ</t>
+          <t>https://www.ebay.com/itm/256799554735?_skw=PSA+10&amp;epid=13070460896&amp;hash=item3bca723caf:g:QwoAAOSwMVdnknyn&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnvjqDhbj%2F8aLOd%2F94RQc5AOCjsW0pIPbGsn%2F3NlGsoHcsEZrsN271cOHFSrChR67MLzXXIzXZY7UBKL2qWmlzALLxxrigQ7b61yuR%2BrL4vWHqjbngiKvU5Y5vas%2Bzrwob2SjeVY3DnKx7jETf3xOXKK8KsjYicA2g2CI1Il2bY3Eu%2BTs0NIdn6xyJqb0iyp0xAjKp4KOm66tgAMuAW%2B2rJhKjYNdVslSlrwKKR%2BluchA%3D%3D%7Ctkp%3ABk9SR9iCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2239,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2251,10 +2247,14 @@
           <t>Topps Chrome</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Flash</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Zlatan Ibrahimovic</t>
+          <t>Erling Haaland</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/126916077418?_skw=PSA+10&amp;hash=item1d8cc9a76a:g:DPYAAOSwCxNnnmdT&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKliIvy%2FZzF3K8dTRF5abF%2B3XQ%2BE1RwdUo9uVNDz1oSFj8JjtEJ5YYlO4HpKWSbXaBAaCQf8V7eaGZah0PbUrpdMST4NRn4P5Pn0UYOeAMN2p5%2Bg%2Be1Qnzd4jDKD5HJYUg86r1M84POauF0ae183%2FM9cHPLQCLhFUAAcrK4Q9GSzz8KJk1U8Ys91lh5lWiMkT2%2FWR97KDiHzWZaTfq%2BQh4X4ekox4s8MmZKIR2AZs1eyBg%3D%3D%7Ctkp%3ABk9SR8DtrZSaZQ</t>
+          <t>https://www.ebay.com/itm/267044891224?_skw=PSA+10&amp;epid=5056477244&amp;hash=item3e2d1daa58:g:ABYAAOSwN0RnIB~1&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmYq3RHU3MvLD%2BMVkm45DXy%2BIGVvsnluogP62qg1n%2FfLSuQXcTjY%2FzOM7utBn%2FWw6gA7ShOxVKcvHZLycDY3imKlxmV03wkelDPGpmW%2FZN81%2BjH3rsIMIASlL%2FsyzdnNyIJ4g4iJmIZsnhb2Ifm%2Bu7AJw%2BjFS2NVMZMhfQ14eAHLuOHzbMVvie5iR9vRKmzbSfFAPYY8miZxJtq7PM6hnD01TKY8hoqF6z%2BK0axHQ2R2w%3D%3D%7Ctkp%3ABk9SR9iCoZiaZQ</t>
         </is>
       </c>
     </row>
@@ -2286,32 +2286,70 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>Topps Chrome</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Zlatan Ibrahimovic</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/126916077418?_skw=PSA+10&amp;hash=item1d8cc9a76a:g:DPYAAOSwCxNnnmdT&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKliIvy%2FZzF3K8dTRF5abF%2B3XQ%2BE1RwdUo9uVNDz1oSFj2RptUDbk2O74EMDxwMEtAkZU3y8X9pPCV754C%2FyQXN0CbEcGzn0CfpDp794CZabfo87tO8%2FhFnbUEbg3EbDQYonZ68da%2BokAtDSXq3NYZ7OV2YavCLSjDHBSIVuLXURdkafQAaN8r%2BT%2Fs0ira%2FxHaeXZuHRs%2FaxG6lCZaoGAbm35LW%2BXdfmYDOMt2eQuOekog%3D%3D%7Ctkp%3ABk9SR9qCoZiaZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Soccer</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2022-23</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>Panini Prizm Premier League</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>White Sparkle Prizm</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>Alejandro Garnacho</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>$280.00</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>2025-02-03</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/306072059779?_skw=PSA+10&amp;epid=13059550633&amp;hash=item474350ff83:g:~vkAAOSweednia09&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn3ej%2F47crNMbjKzVGAtfEj1ze5ZUsriCMK1s2xDJ5H0R0mY9NRGAOgPBlrimmZ%2BiCIjxp0nfLhOrKz2vYr1CzNxzKNdy97BkygwdH%2BbXYa7x0GWTd3vJxnuSBIznqM%2BVjbqey9UpVhzwRqWhdt9GxDLxc62ZHRfI97BFd6xw%2BAP8tiacZRc61zGYt%2F2Q6v%2BP8sswNQgNm553l55RrV3bywo9OFIjQPABfFHeyVw8iWwQ%3D%3D%7Ctkp%3ABk9SR8DtrZSaZQ</t>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/306072059779?_skw=PSA+10&amp;epid=13059550633&amp;hash=item474350ff83:g:~vkAAOSweednia09&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn3ej%2F47crNMbjKzVGAtfEj1ze5ZUsriCMK1s2xDJ5H0dTzSlIqPphhp1Qbyfp3nN9%2BEtMuXteaN7Sl7empeOwj7WAZgpXiXKuG%2Bn67jIY5AY2b%2FXphEc5bGAQiCBW4up4Kh2TOockNBNleu%2FLY7CRYbircByyjYDvkQRo%2FCTs6gjaqQ6KwKSigLXdZZdVISMKUT9ZUSz2blk1hIUXxoER%2FN0aKZUTihOMhvLMbZlCn4g%3D%3D%7Ctkp%3ABk9SR9qCoZiaZQ</t>
         </is>
       </c>
     </row>
